--- a/model-desc/load/cmb-dbgap-to-ctdc-mapping.v02-05-24.xlsx
+++ b/model-desc/load/cmb-dbgap-to-ctdc-mapping.v02-05-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jensenma/Code/ctdc-model/model-desc/load/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19790668-EB77-BD4A-97C2-5D66B68AC189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C9048-414E-214D-93EF-B95E387DF5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2900" windowWidth="22120" windowHeight="17100" xr2:uid="{82DB1130-5C0E-4A0D-B874-D860416AB15C}"/>
+    <workbookView xWindow="7260" yWindow="4580" windowWidth="28580" windowHeight="17820" xr2:uid="{82DB1130-5C0E-4A0D-B874-D860416AB15C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,9 +645,6 @@
     <t>TISSUE_TYPE</t>
   </si>
   <si>
-    <t>tissue_type</t>
-  </si>
-  <si>
     <t>per CMB Catalog, acceptable terms are: Metastatic, Normal, Primary</t>
   </si>
   <si>
@@ -736,6 +733,9 @@
   </si>
   <si>
     <t>best_response_to_non_targeted_therapy</t>
+  </si>
+  <si>
+    <t>tissue_category</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42411B5-C6CD-4E03-A58C-598A8907823B}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1230,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="D3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="D4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="D6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
         <v>83</v>
@@ -1714,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" t="s">
         <v>86</v>
@@ -1792,7 +1792,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
         <v>95</v>
@@ -1815,7 +1815,7 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
         <v>97</v>
@@ -1838,7 +1838,7 @@
         <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
         <v>100</v>
@@ -1861,7 +1861,7 @@
         <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s">
         <v>102</v>
@@ -2084,10 +2084,10 @@
         <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>12</v>
@@ -2110,10 +2110,10 @@
         <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>12</v>
@@ -2136,10 +2136,10 @@
         <v>137</v>
       </c>
       <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
         <v>221</v>
-      </c>
-      <c r="E53" t="s">
-        <v>222</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>12</v>
@@ -2162,10 +2162,10 @@
         <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>12</v>
@@ -2182,10 +2182,10 @@
         <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>50</v>
@@ -2205,10 +2205,10 @@
         <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>50</v>
@@ -2231,7 +2231,7 @@
         <v>112</v>
       </c>
       <c r="D60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E60" t="s">
         <v>143</v>
@@ -2257,7 +2257,7 @@
         <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E61" t="s">
         <v>146</v>
@@ -2283,7 +2283,7 @@
         <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E62" t="s">
         <v>150</v>
@@ -2306,7 +2306,7 @@
         <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
         <v>154</v>
@@ -2329,7 +2329,7 @@
         <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E64" t="s">
         <v>157</v>
@@ -2352,7 +2352,7 @@
         <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
         <v>160</v>
@@ -2375,7 +2375,7 @@
         <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E66" t="s">
         <v>163</v>
@@ -2596,7 +2596,7 @@
         <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" t="s">
         <v>184</v>
@@ -2616,13 +2616,13 @@
         <v>183</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
         <v>184</v>
       </c>
       <c r="E82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>12</v>
@@ -2749,7 +2749,7 @@
         <v>184</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>99</v>
@@ -2758,7 +2758,7 @@
         <v>35</v>
       </c>
       <c r="H88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16">
@@ -2766,13 +2766,13 @@
         <v>78</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s">
         <v>184</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>99</v>
@@ -2781,7 +2781,7 @@
         <v>118</v>
       </c>
       <c r="H89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16">
@@ -2789,13 +2789,13 @@
         <v>183</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
         <v>184</v>
       </c>
       <c r="E90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>99</v>
@@ -2804,7 +2804,7 @@
         <v>108</v>
       </c>
       <c r="H90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2830,15 +2830,15 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>92</v>
@@ -2852,7 +2852,7 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2860,15 +2860,15 @@
         <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
         <v>224</v>
-      </c>
-      <c r="C6" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2877,15 +2877,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ab2461be-612b-4a7d-97a6-88746ff000b8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2c88cf8-fdea-4576-9a06-e21c1121a157">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Comments xmlns="a2c88cf8-fdea-4576-9a06-e21c1121a157" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3140,21 +3137,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ab2461be-612b-4a7d-97a6-88746ff000b8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2c88cf8-fdea-4576-9a06-e21c1121a157">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Comments xmlns="a2c88cf8-fdea-4576-9a06-e21c1121a157" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72F1885-35B1-40BD-A0A5-A5377BDD4C4B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{867AE92D-5788-4664-814A-92D536B4FC12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab2461be-612b-4a7d-97a6-88746ff000b8"/>
-    <ds:schemaRef ds:uri="a2c88cf8-fdea-4576-9a06-e21c1121a157"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3179,9 +3176,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{867AE92D-5788-4664-814A-92D536B4FC12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72F1885-35B1-40BD-A0A5-A5377BDD4C4B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab2461be-612b-4a7d-97a6-88746ff000b8"/>
+    <ds:schemaRef ds:uri="a2c88cf8-fdea-4576-9a06-e21c1121a157"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>